--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.011320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.011320.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1875,12 +1875,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2369,12 +2369,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2483,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2673,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3395,12 +3395,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4571,12 +4571,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4685,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5181,12 +5181,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5331,12 +5331,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5483,12 +5483,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5635,12 +5635,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5749,12 +5749,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5787,12 +5787,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6357,12 +6357,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6621,12 +6621,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6697,12 +6697,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6887,12 +6887,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7039,12 +7039,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7229,12 +7229,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7607,12 +7607,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7873,12 +7873,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8101,12 +8101,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8177,12 +8177,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8519,12 +8519,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8637,12 +8637,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8827,12 +8827,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10887,12 +10887,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11227,12 +11227,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11649,12 +11649,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11687,12 +11687,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11953,12 +11953,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12067,12 +12067,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12257,12 +12257,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12903,12 +12903,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13211,12 +13211,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13401,12 +13401,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13477,12 +13477,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13553,12 +13553,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14503,12 +14503,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14579,12 +14579,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14655,12 +14655,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15073,12 +15073,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15187,12 +15187,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15339,12 +15339,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16749,12 +16749,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17133,12 +17133,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17251,12 +17251,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17407,12 +17407,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17483,12 +17483,12 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17635,12 +17635,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17939,12 +17939,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18397,12 +18397,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18701,12 +18701,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19005,12 +19005,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19081,12 +19081,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19423,12 +19423,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20301,12 +20301,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
